--- a/test/AbilityConfigXlsx.xlsx
+++ b/test/AbilityConfigXlsx.xlsx
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4070" yWindow="0" windowWidth="24140" windowHeight="13650" tabRatio="435"/>
+    <workbookView xWindow="5110" yWindow="0" windowWidth="24140" windowHeight="13650" tabRatio="435"/>
   </bookViews>
   <sheets>
-    <sheet name="AbilityConfigXlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="AbilityConfigXlsxCopy" sheetId="2" r:id="rId1"/>
+    <sheet name="AbilityConfigXlsx" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AbilityConfigXlsx!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AbilityConfigXlsx!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AbilityConfigXlsxCopy!$A$2:$B$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -189,12 +191,16 @@
 1.提升</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>IDCopy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -220,6 +226,19 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -264,7 +283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,6 +318,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -607,9 +629,882 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6328125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="13.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="47.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1001001</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>100</v>
+      </c>
+      <c r="D3" s="11">
+        <f>C3/10</f>
+        <v>10</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6">
+        <v>10</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>1001002</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>100</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" ref="D4:D19" si="0">C4/10</f>
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>10</v>
+      </c>
+      <c r="H4" s="6">
+        <v>10</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>1002001</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>100</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>10</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>50</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>1003001</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>100</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>10</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
+      <c r="M6" s="9">
+        <v>100</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>1004001</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>100</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>10</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1</v>
+      </c>
+      <c r="M7" s="9">
+        <v>200</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>1005001</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
+        <v>100</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>10</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>50</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>1005002</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11">
+        <v>30</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3</v>
+      </c>
+      <c r="H9" s="6">
+        <v>10</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>2001001</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
+        <v>100</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>10</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>100</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>2001002</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11">
+        <v>40</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6">
+        <v>10</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>2002001</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
+        <v>100</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>10</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>50</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2002002</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11">
+        <v>30</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4</v>
+      </c>
+      <c r="H13" s="6">
+        <v>10</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>2003001</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11">
+        <v>100</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>10</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>50</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>2003002</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11">
+        <v>30</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="11">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>6</v>
+      </c>
+      <c r="H15" s="6">
+        <v>10</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>2004001</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="11">
+        <v>100</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F16" s="11">
+        <v>2</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>10</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>50</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>2004002</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11">
+        <v>30</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="11">
+        <v>2</v>
+      </c>
+      <c r="G17" s="6">
+        <v>9</v>
+      </c>
+      <c r="H17" s="6">
+        <v>10</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>2005001</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11">
+        <v>100</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="11">
+        <v>2</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>10</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>50</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>2005002</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11">
+        <v>30</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2</v>
+      </c>
+      <c r="G19" s="6">
+        <v>7</v>
+      </c>
+      <c r="H19" s="6">
+        <v>10</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/test/AbilityConfigXlsx.xlsx
+++ b/test/AbilityConfigXlsx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5110" yWindow="0" windowWidth="24140" windowHeight="13650" tabRatio="435"/>
+    <workbookView xWindow="7190" yWindow="0" windowWidth="24140" windowHeight="13650" tabRatio="435"/>
   </bookViews>
   <sheets>
     <sheet name="AbilityConfigXlsxCopy" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -194,6 +194,44 @@
   <si>
     <t>IDCopy</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buf"f_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buf\nf_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>buf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f_2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_2
+altenter</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -283,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -322,6 +360,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -635,7 +676,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1146,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F11" s="11">
         <v>2</v>
@@ -1192,7 +1233,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F13" s="11">
         <v>2</v>
@@ -1278,8 +1319,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>27</v>
+      <c r="E15" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="F15" s="11">
         <v>2</v>
@@ -1351,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="28" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>2004002</v>
       </c>
@@ -1365,8 +1406,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>27</v>
+      <c r="E17" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="F17" s="11">
         <v>2</v>

--- a/test/AbilityConfigXlsx.xlsx
+++ b/test/AbilityConfigXlsx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7190" yWindow="0" windowWidth="24140" windowHeight="13650" tabRatio="435"/>
+    <workbookView xWindow="8230" yWindow="0" windowWidth="24140" windowHeight="13650" tabRatio="435"/>
   </bookViews>
   <sheets>
     <sheet name="AbilityConfigXlsxCopy" sheetId="2" r:id="rId1"/>
@@ -230,7 +230,7 @@
   </si>
   <si>
     <t>buff_2
-altenter</t>
+ alte nter</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
